--- a/1/Sešit1.xlsx
+++ b/1/Sešit1.xlsx
@@ -614,7 +614,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -808,6 +808,10 @@
       <c r="S6" s="2">
         <f>63*0.024/120</f>
         <v>0.0126</v>
+      </c>
+      <c r="V6">
+        <f>K6*1000</f>
+        <v>10.08</v>
       </c>
     </row>
     <row r="7" ht="14.25">
@@ -1262,7 +1266,10 @@
       </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
+      <c r="V17" s="3">
+        <f>K17*1000</f>
+        <v>4.3200000000000003</v>
+      </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
@@ -1765,7 +1772,10 @@
       </c>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
+      <c r="V29" s="3">
+        <f>K29*1000</f>
+        <v>3.8400000000000007</v>
+      </c>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
@@ -2356,7 +2366,10 @@
       </c>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
+      <c r="V42" s="3">
+        <f>K42*1000</f>
+        <v>7.3600000000000021</v>
+      </c>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
@@ -2710,7 +2723,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
@@ -2738,8 +2751,6 @@
       <c r="S1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
       <c r="C2" s="3">
         <v>0.10000000000000001</v>
       </c>
@@ -2827,7 +2838,6 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4"/>
       <c r="C4">
         <v>63</v>
       </c>
@@ -3010,7 +3020,6 @@
         <f>R6*120/0.024</f>
         <v>6.2999999999999998</v>
       </c>
-      <c r="S7"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
